--- a/biology/Biologie cellulaire et moléculaire/Brian_Charlesworth/Brian_Charlesworth.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Brian_Charlesworth/Brian_Charlesworth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brian Charlesworth, né le 29 avril 1945 est un biologiste britannique membre de la Royal Society et éditeur de Biology Letters.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Brian Charlesworth a obtenu son Bachelor of Arts au Queens' College de Cambridge suivit d´une thèse en génétique à Cambridge en 1969. Il effectua plusieurs séjours postdoctoraux à l'Université de Chicago, à l'Université de Liverpool de 1971 à 1974 puis à l'Université du Sussex dans le laboratoire de John Maynard Smith de 1974 à 1982. Il retourne à Chicago en tant que professeur d'écologie et d'évolution de 1985 à 1997. Il a été élu membre de la prestigieuse Royal Society en 1991 et remporta la médaille Darwin en 2000. Depuis 1997, il est professeur de la société royale à l'institut de biologie de l'évolution à l'Université d'Édimbourg.
 Il est marié à Deborah Charlesworth qui est également professeur en biologie et membre de la Royal Society.
@@ -543,7 +557,9 @@
           <t>Contributions scientifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Brian Charlesworth étudie l'évolution en utilisant la drosophile comme organisme modèle. Il a mené de nombreuses études théoriques sur le vieillissement et surtout l'évolution de la recombinaison et des chromosomes sexuels.
 </t>
@@ -574,7 +590,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Evolution in Age-Structured Populations CUP  (ISBN 0-521-45967-2)
 Evolution: A Very Short Introduction (with Deborah Charlesworth) OUP  (ISBN 0-19-280251-8)</t>
